--- a/biology/Zoologie/Eudistylia/Eudistylia.xlsx
+++ b/biology/Zoologie/Eudistylia/Eudistylia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eudistylia est un genre de vers annélides polychètes marins de la famille des Sabellidae. 
 </t>
@@ -511,16 +523,18 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (2 janvier 2019)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (2 janvier 2019) :
 Eudistylia brevicomata Ehlers, 1905
 Eudistylia catharinae Banse, 1979
 Eudistylia ceratodaula Schmarda, 1861
 Eudistylia polymorpha Johnson, 1901
 Eudistylia suavis Grube, 1878
 Eudistylia tenella Bush, 1904
-Eudistylia vancouveri Kinberg, 1866 - espèce type[3]</t>
+Eudistylia vancouveri Kinberg, 1866 - espèce type</t>
         </is>
       </c>
     </row>
@@ -548,7 +562,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Bush, 1904 : Tubicolous annelids of the tribes Sabellides and Serpulides from the Pacific Ocean. Harriman Alaska Expedition, vol. 12, pp. 169-346 (texte intégral) (en).</t>
         </is>
